--- a/df_both_seasons_home.xlsx
+++ b/df_both_seasons_home.xlsx
@@ -460,25 +460,25 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3">
@@ -505,28 +505,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4">
@@ -559,22 +559,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M4" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -592,12 +592,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -607,22 +607,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
@@ -652,22 +652,22 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="N6" t="n">
         <v>1.3</v>
@@ -688,37 +688,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N7" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -736,25 +736,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B25" t="n">
         <v>14</v>
@@ -1552,42 +1552,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B26" t="n">
         <v>14</v>
@@ -1600,37 +1600,37 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="L26" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="27">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>2</v>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>5</v>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
         <v>4</v>
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>4</v>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
         <v>3</v>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>3</v>
@@ -4439,7 +4439,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>2</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B88" t="n">
         <v>28</v>
@@ -4574,42 +4574,42 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J88" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="N88" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B89" t="n">
         <v>28</v>
@@ -4622,37 +4622,37 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K89" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="N89" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="90">
@@ -4823,7 +4823,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>2</v>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>2</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B105" t="n">
         <v>14</v>
@@ -5390,37 +5390,37 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>M'gladbach</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J105" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="N105" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="106">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B107" t="n">
         <v>14</v>
@@ -5486,12 +5486,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>M'gladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -5501,22 +5501,22 @@
         <v>1</v>
       </c>
       <c r="I107" t="n">
+        <v>6</v>
+      </c>
+      <c r="J107" t="n">
         <v>7</v>
       </c>
-      <c r="J107" t="n">
-        <v>4</v>
-      </c>
       <c r="K107" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="N107" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="108">
@@ -5543,7 +5543,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>3</v>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>3</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
         <v>4</v>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B118" t="n">
         <v>3</v>
@@ -6014,37 +6014,37 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="G118" t="n">
         <v>2</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M118" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="N118" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="119">
@@ -6097,7 +6097,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B120" t="n">
         <v>3</v>
@@ -6110,37 +6110,37 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G120" t="n">
         <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="N120" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="121">
@@ -6263,7 +6263,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>2</v>
@@ -6739,7 +6739,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
         <v>1</v>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
@@ -7123,7 +7123,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>3</v>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H142" t="n">
         <v>3</v>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H143" t="n">
         <v>3</v>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144" t="n">
         <v>3</v>
@@ -7315,7 +7315,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H145" t="n">
         <v>2</v>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -7411,7 +7411,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
         <v>3</v>
@@ -7603,7 +7603,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
         <v>3</v>
@@ -7843,7 +7843,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
         <v>2</v>
@@ -7891,7 +7891,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>1</v>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B162" t="n">
         <v>2</v>
@@ -8122,42 +8122,42 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J162" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K162" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="L162" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="M162" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="N162" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B163" t="n">
         <v>2</v>
@@ -8170,37 +8170,37 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I163" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K163" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="L163" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="M163" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="N163" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="164">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
@@ -8275,7 +8275,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -8323,7 +8323,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -8419,7 +8419,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
@@ -8563,7 +8563,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>4</v>
@@ -8611,7 +8611,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>2</v>
@@ -8751,7 +8751,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
         <v>2</v>
@@ -8847,7 +8847,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>2</v>
@@ -9085,7 +9085,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
         <v>4</v>
@@ -9133,7 +9133,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>1</v>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
         <v>2</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
         <v>1</v>
@@ -9413,7 +9413,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>1</v>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
@@ -10275,7 +10275,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>4</v>
@@ -10659,7 +10659,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>4</v>
@@ -10851,7 +10851,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>4</v>
@@ -10947,7 +10947,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H240" t="n">
         <v>1</v>
@@ -11901,7 +11901,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H241" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H245" t="n">
         <v>2</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258" t="n">
         <v>3</v>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
         <v>1</v>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
         <v>1</v>
@@ -13291,7 +13291,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270" t="n">
         <v>1</v>
@@ -13433,7 +13433,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H273" t="n">
         <v>3</v>
@@ -13529,7 +13529,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -13575,7 +13575,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="n">
         <v>1</v>
@@ -13717,7 +13717,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H282" t="n">
         <v>1</v>
@@ -14097,7 +14097,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -14123,7 +14123,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B288" t="n">
         <v>23</v>
@@ -14136,42 +14136,42 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Sandhausen</t>
         </is>
       </c>
       <c r="G288" t="n">
         <v>2</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L288" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M288" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N288" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B289" t="n">
         <v>23</v>
@@ -14184,37 +14184,37 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Sandhausen</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="G289" t="n">
         <v>2</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J289" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K289" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L289" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M289" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N289" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="290">
@@ -14241,7 +14241,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H290" t="n">
         <v>1</v>
@@ -14337,7 +14337,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H292" t="n">
         <v>1</v>
@@ -14481,7 +14481,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -14529,7 +14529,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H296" t="n">
         <v>1</v>
@@ -15151,7 +15151,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H309" t="n">
         <v>1</v>
@@ -15343,7 +15343,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H313" t="n">
         <v>1</v>
@@ -15583,7 +15583,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H318" t="n">
         <v>5</v>
@@ -15727,7 +15727,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H321" t="n">
         <v>2</v>
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H324" t="n">
         <v>1</v>
@@ -15919,7 +15919,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H325" t="n">
         <v>1</v>
@@ -15967,7 +15967,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H326" t="n">
         <v>1</v>
@@ -16015,7 +16015,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -16063,7 +16063,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H342" t="n">
         <v>1</v>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H346" t="n">
         <v>3</v>
@@ -16963,7 +16963,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H347" t="n">
         <v>3</v>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H348" t="n">
         <v>2</v>
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -17199,7 +17199,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H352" t="n">
         <v>2</v>
@@ -17339,7 +17339,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355" t="n">
         <v>3</v>
@@ -17433,7 +17433,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357" t="n">
         <v>1</v>
@@ -17987,7 +17987,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H369" t="n">
         <v>2</v>
@@ -18033,7 +18033,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H370" t="n">
         <v>2</v>
@@ -18309,7 +18309,7 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -18495,7 +18495,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -18773,7 +18773,7 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H386" t="n">
         <v>4</v>
@@ -18865,7 +18865,7 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H388" t="n">
         <v>2</v>
@@ -18957,7 +18957,7 @@
         </is>
       </c>
       <c r="G390" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H390" t="n">
         <v>2</v>
@@ -19003,7 +19003,7 @@
         </is>
       </c>
       <c r="G391" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H391" t="n">
         <v>2</v>
@@ -19141,7 +19141,7 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H394" t="n">
         <v>5</v>
@@ -19187,7 +19187,7 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H395" t="n">
         <v>3</v>
@@ -19233,7 +19233,7 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H396" t="n">
         <v>2</v>
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -19555,7 +19555,7 @@
         </is>
       </c>
       <c r="G403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -19947,7 +19947,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B412" t="n">
         <v>27</v>
@@ -19960,40 +19960,42 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G412" t="n">
         <v>2</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J412" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K412" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M412" t="n">
-        <v>0</v>
-      </c>
-      <c r="N412" t="inlineStr"/>
+        <v>0.9</v>
+      </c>
+      <c r="N412" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B413" t="n">
         <v>27</v>
@@ -20006,38 +20008,36 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G413" t="n">
         <v>1</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J413" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M413" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N413" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -20109,7 +20109,7 @@
         </is>
       </c>
       <c r="G415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H415" t="n">
         <v>2</v>
@@ -20201,7 +20201,7 @@
         </is>
       </c>
       <c r="G417" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H417" t="n">
         <v>1</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="G418" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H418" t="n">
         <v>0</v>
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="G423" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H423" t="n">
         <v>2</v>
@@ -20799,7 +20799,7 @@
         </is>
       </c>
       <c r="G430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H430" t="n">
         <v>1</v>
@@ -21167,7 +21167,7 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H438" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H439" t="n">
         <v>1</v>
@@ -21443,7 +21443,7 @@
         </is>
       </c>
       <c r="G444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H444" t="n">
         <v>2</v>
@@ -21697,7 +21697,7 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B450" t="n">
         <v>26</v>
@@ -21710,12 +21710,12 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G450" t="n">
@@ -21725,16 +21725,16 @@
         <v>0</v>
       </c>
       <c r="I450" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J450" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L450" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M450" t="n">
         <v>0</v>
@@ -21743,7 +21743,7 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B451" t="n">
         <v>26</v>
@@ -21756,12 +21756,12 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G451" t="n">
@@ -21771,16 +21771,16 @@
         <v>0</v>
       </c>
       <c r="I451" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J451" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L451" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M451" t="n">
         <v>0</v>
@@ -21811,7 +21811,7 @@
         </is>
       </c>
       <c r="G452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H452" t="n">
         <v>1</v>
@@ -21857,7 +21857,7 @@
         </is>
       </c>
       <c r="G453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H453" t="n">
         <v>0</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="G458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H458" t="n">
         <v>1</v>
@@ -22179,7 +22179,7 @@
         </is>
       </c>
       <c r="G460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H460" t="n">
         <v>3</v>
@@ -22363,7 +22363,7 @@
         </is>
       </c>
       <c r="G464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H464" t="n">
         <v>2</v>
@@ -22409,7 +22409,7 @@
         </is>
       </c>
       <c r="G465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H465" t="n">
         <v>2</v>
@@ -22455,7 +22455,7 @@
         </is>
       </c>
       <c r="G466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H466" t="n">
         <v>1</v>
@@ -22593,7 +22593,7 @@
         </is>
       </c>
       <c r="G469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H469" t="n">
         <v>0</v>
@@ -22685,7 +22685,7 @@
         </is>
       </c>
       <c r="G471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H471" t="n">
         <v>0</v>
@@ -23031,7 +23031,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B479" t="n">
         <v>15</v>
@@ -23044,25 +23044,25 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G479" t="n">
         <v>2</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J479" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K479" t="n">
         <v>1</v>
@@ -23077,7 +23077,7 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B480" t="n">
         <v>15</v>
@@ -23090,25 +23090,25 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="G480" t="n">
         <v>2</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J480" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K480" t="n">
         <v>1</v>
@@ -23559,7 +23559,7 @@
         </is>
       </c>
       <c r="G490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H490" t="n">
         <v>2</v>
@@ -23651,7 +23651,7 @@
         </is>
       </c>
       <c r="G492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H492" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         </is>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H494" t="n">
         <v>1</v>
@@ -23881,7 +23881,7 @@
         </is>
       </c>
       <c r="G497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H497" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         </is>
       </c>
       <c r="G500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H500" t="n">
         <v>1</v>
@@ -24249,7 +24249,7 @@
         </is>
       </c>
       <c r="G505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H505" t="n">
         <v>1</v>
@@ -24341,7 +24341,7 @@
         </is>
       </c>
       <c r="G507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H507" t="n">
         <v>2</v>
@@ -24387,7 +24387,7 @@
         </is>
       </c>
       <c r="G508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H508" t="n">
         <v>0</v>
@@ -24479,7 +24479,7 @@
         </is>
       </c>
       <c r="G510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H510" t="n">
         <v>0</v>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="G512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H512" t="n">
         <v>2</v>
@@ -24893,7 +24893,7 @@
         </is>
       </c>
       <c r="G519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H519" t="n">
         <v>1</v>
@@ -25031,7 +25031,7 @@
         </is>
       </c>
       <c r="G522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H522" t="n">
         <v>3</v>
@@ -25123,7 +25123,7 @@
         </is>
       </c>
       <c r="G524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H524" t="n">
         <v>3</v>
@@ -25261,7 +25261,7 @@
         </is>
       </c>
       <c r="G527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H527" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         </is>
       </c>
       <c r="G531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H531" t="n">
         <v>0</v>
@@ -25583,7 +25583,7 @@
         </is>
       </c>
       <c r="G534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H534" t="n">
         <v>1</v>
@@ -26825,7 +26825,7 @@
         </is>
       </c>
       <c r="G561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H561" t="n">
         <v>1</v>

--- a/df_both_seasons_home.xlsx
+++ b/df_both_seasons_home.xlsx
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>2</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>4</v>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>4</v>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>3</v>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>2</v>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>2</v>
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>2</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>4</v>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>3</v>
@@ -4583,7 +4583,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -4775,7 +4775,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>2</v>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>3</v>
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>3</v>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -5495,7 +5495,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -5639,7 +5639,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
         <v>2</v>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>3</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>3</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>2</v>
@@ -6691,7 +6691,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
@@ -6739,7 +6739,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
@@ -7123,7 +7123,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>3</v>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>3</v>
@@ -7315,7 +7315,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H145" t="n">
         <v>2</v>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -7411,7 +7411,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
         <v>3</v>
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H149" t="n">
         <v>4</v>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H154" t="n">
         <v>3</v>
@@ -7891,7 +7891,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>1</v>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>2</v>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
@@ -8611,7 +8611,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>2</v>
@@ -8799,7 +8799,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>1</v>
@@ -8847,7 +8847,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>4</v>
@@ -8941,7 +8941,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>2</v>
@@ -9133,7 +9133,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
         <v>1</v>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>2</v>
@@ -9413,7 +9413,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>1</v>
@@ -9701,7 +9701,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H195" t="n">
         <v>2</v>
@@ -9749,7 +9749,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
@@ -9797,7 +9797,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>1</v>
@@ -9893,7 +9893,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>2</v>
@@ -10037,7 +10037,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H202" t="n">
         <v>2</v>
@@ -10085,7 +10085,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -10181,7 +10181,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H205" t="n">
         <v>1</v>
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>1</v>
@@ -10275,7 +10275,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -10419,7 +10419,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>4</v>
@@ -10803,7 +10803,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H218" t="n">
         <v>2</v>
@@ -10851,7 +10851,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>4</v>
@@ -10947,7 +10947,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H222" t="n">
         <v>4</v>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -11137,7 +11137,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H225" t="n">
         <v>1</v>
@@ -11185,7 +11185,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>5</v>
@@ -11233,7 +11233,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -11281,7 +11281,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H228" t="n">
         <v>2</v>
@@ -11377,7 +11377,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>1</v>
@@ -11423,7 +11423,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>2</v>
@@ -11469,7 +11469,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>1</v>
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
         <v>4</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H239" t="n">
         <v>1</v>
@@ -11901,7 +11901,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H241" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H243" t="n">
         <v>1</v>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H245" t="n">
         <v>2</v>
@@ -12379,7 +12379,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H251" t="n">
         <v>1</v>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -12667,7 +12667,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
         <v>3</v>
@@ -12715,7 +12715,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
         <v>3</v>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -12859,7 +12859,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261" t="n">
         <v>1</v>
@@ -12955,7 +12955,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>3</v>
@@ -13003,7 +13003,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H265" t="n">
         <v>1</v>
@@ -13099,7 +13099,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>3</v>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H268" t="n">
         <v>1</v>
@@ -13291,7 +13291,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>1</v>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H271" t="n">
         <v>1</v>
@@ -13433,7 +13433,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H273" t="n">
         <v>3</v>
@@ -13529,7 +13529,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -13717,7 +13717,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -13813,7 +13813,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H281" t="n">
         <v>1</v>
@@ -13859,7 +13859,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H282" t="n">
         <v>1</v>
@@ -13907,7 +13907,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H283" t="n">
         <v>2</v>
@@ -14241,7 +14241,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H290" t="n">
         <v>1</v>
@@ -14481,7 +14481,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -14673,7 +14673,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -14769,7 +14769,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H301" t="n">
         <v>3</v>
@@ -14911,7 +14911,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H304" t="n">
         <v>2</v>
@@ -14959,7 +14959,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H305" t="n">
         <v>3</v>
@@ -15007,7 +15007,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="n">
         <v>1</v>
@@ -15055,7 +15055,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -15151,7 +15151,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309" t="n">
         <v>1</v>
@@ -15199,7 +15199,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H310" t="n">
         <v>2</v>
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -15391,7 +15391,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H314" t="n">
         <v>4</v>
@@ -15439,7 +15439,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="n">
         <v>1</v>
@@ -15631,7 +15631,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319" t="n">
         <v>1</v>
@@ -15727,7 +15727,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="n">
         <v>2</v>
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H324" t="n">
         <v>1</v>
@@ -15967,7 +15967,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H326" t="n">
         <v>1</v>
@@ -16063,7 +16063,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -16251,7 +16251,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H332" t="n">
         <v>1</v>
@@ -16299,7 +16299,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H333" t="n">
         <v>4</v>
@@ -16491,7 +16491,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H337" t="n">
         <v>1</v>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H346" t="n">
         <v>3</v>
@@ -16963,7 +16963,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H347" t="n">
         <v>3</v>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H348" t="n">
         <v>2</v>
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -17153,7 +17153,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351" t="n">
         <v>1</v>
@@ -17199,7 +17199,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H352" t="n">
         <v>2</v>
@@ -17433,7 +17433,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H357" t="n">
         <v>1</v>
@@ -17525,7 +17525,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -17663,7 +17663,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H362" t="n">
         <v>3</v>
@@ -17755,7 +17755,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H364" t="n">
         <v>1</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366" t="n">
         <v>3</v>
@@ -18033,7 +18033,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H370" t="n">
         <v>2</v>
@@ -18263,7 +18263,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -18449,7 +18449,7 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H379" t="n">
         <v>1</v>
@@ -18495,7 +18495,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -18589,7 +18589,7 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -18681,7 +18681,7 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H384" t="n">
         <v>1</v>
@@ -18819,7 +18819,7 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H387" t="n">
         <v>1</v>
@@ -18865,7 +18865,7 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H388" t="n">
         <v>2</v>
@@ -18911,7 +18911,7 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H389" t="n">
         <v>1</v>
@@ -19141,7 +19141,7 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H394" t="n">
         <v>5</v>
@@ -19187,7 +19187,7 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H395" t="n">
         <v>3</v>
@@ -19233,7 +19233,7 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H396" t="n">
         <v>2</v>
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -19417,7 +19417,7 @@
         </is>
       </c>
       <c r="G400" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H400" t="n">
         <v>3</v>
@@ -19509,7 +19509,7 @@
         </is>
       </c>
       <c r="G402" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H402" t="n">
         <v>0</v>
@@ -19555,7 +19555,7 @@
         </is>
       </c>
       <c r="G403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -19601,7 +19601,7 @@
         </is>
       </c>
       <c r="G404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -19739,7 +19739,7 @@
         </is>
       </c>
       <c r="G407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H407" t="n">
         <v>6</v>
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="G410" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H410" t="n">
         <v>3</v>
@@ -20201,7 +20201,7 @@
         </is>
       </c>
       <c r="G417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H417" t="n">
         <v>1</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="G418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H418" t="n">
         <v>0</v>
@@ -20431,7 +20431,7 @@
         </is>
       </c>
       <c r="G422" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H422" t="n">
         <v>2</v>
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="G423" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H423" t="n">
         <v>2</v>
@@ -21029,7 +21029,7 @@
         </is>
       </c>
       <c r="G435" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H435" t="n">
         <v>2</v>
@@ -21075,7 +21075,7 @@
         </is>
       </c>
       <c r="G436" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H436" t="n">
         <v>2</v>
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="G437" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H437" t="n">
         <v>0</v>
@@ -21167,7 +21167,7 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H438" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H439" t="n">
         <v>1</v>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="G440" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H440" t="n">
         <v>0</v>
@@ -21443,7 +21443,7 @@
         </is>
       </c>
       <c r="G444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H444" t="n">
         <v>2</v>
@@ -21903,7 +21903,7 @@
         </is>
       </c>
       <c r="G454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H454" t="n">
         <v>1</v>
@@ -21949,7 +21949,7 @@
         </is>
       </c>
       <c r="G455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H455" t="n">
         <v>1</v>
@@ -22133,7 +22133,7 @@
         </is>
       </c>
       <c r="G459" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H459" t="n">
         <v>0</v>
@@ -22179,7 +22179,7 @@
         </is>
       </c>
       <c r="G460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H460" t="n">
         <v>3</v>
@@ -22317,7 +22317,7 @@
         </is>
       </c>
       <c r="G463" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H463" t="n">
         <v>1</v>
@@ -22455,7 +22455,7 @@
         </is>
       </c>
       <c r="G466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H466" t="n">
         <v>1</v>
@@ -22593,7 +22593,7 @@
         </is>
       </c>
       <c r="G469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H469" t="n">
         <v>0</v>
@@ -22731,7 +22731,7 @@
         </is>
       </c>
       <c r="G472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H472" t="n">
         <v>2</v>
@@ -23053,7 +23053,7 @@
         </is>
       </c>
       <c r="G479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H479" t="n">
         <v>1</v>
@@ -23191,7 +23191,7 @@
         </is>
       </c>
       <c r="G482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H482" t="n">
         <v>2</v>
@@ -23283,7 +23283,7 @@
         </is>
       </c>
       <c r="G484" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H484" t="n">
         <v>2</v>
@@ -23375,7 +23375,7 @@
         </is>
       </c>
       <c r="G486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H486" t="n">
         <v>0</v>
@@ -23605,7 +23605,7 @@
         </is>
       </c>
       <c r="G491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H491" t="n">
         <v>0</v>
@@ -23651,7 +23651,7 @@
         </is>
       </c>
       <c r="G492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H492" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         </is>
       </c>
       <c r="G493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H493" t="n">
         <v>1</v>
@@ -23743,7 +23743,7 @@
         </is>
       </c>
       <c r="G494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H494" t="n">
         <v>1</v>
@@ -23835,7 +23835,7 @@
         </is>
       </c>
       <c r="G496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H496" t="n">
         <v>1</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="G498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H498" t="n">
         <v>2</v>
@@ -24019,7 +24019,7 @@
         </is>
       </c>
       <c r="G500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H500" t="n">
         <v>1</v>
@@ -24065,7 +24065,7 @@
         </is>
       </c>
       <c r="G501" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H501" t="n">
         <v>1</v>
@@ -24249,7 +24249,7 @@
         </is>
       </c>
       <c r="G505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H505" t="n">
         <v>1</v>
@@ -24295,7 +24295,7 @@
         </is>
       </c>
       <c r="G506" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H506" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         </is>
       </c>
       <c r="G507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H507" t="n">
         <v>2</v>
@@ -24387,7 +24387,7 @@
         </is>
       </c>
       <c r="G508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H508" t="n">
         <v>0</v>
@@ -24433,7 +24433,7 @@
         </is>
       </c>
       <c r="G509" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H509" t="n">
         <v>0</v>
@@ -24479,7 +24479,7 @@
         </is>
       </c>
       <c r="G510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H510" t="n">
         <v>0</v>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="G512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H512" t="n">
         <v>2</v>
@@ -24617,7 +24617,7 @@
         </is>
       </c>
       <c r="G513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H513" t="n">
         <v>1</v>
@@ -24847,7 +24847,7 @@
         </is>
       </c>
       <c r="G518" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H518" t="n">
         <v>0</v>
@@ -25031,7 +25031,7 @@
         </is>
       </c>
       <c r="G522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H522" t="n">
         <v>3</v>
@@ -25077,7 +25077,7 @@
         </is>
       </c>
       <c r="G523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H523" t="n">
         <v>0</v>
@@ -25215,7 +25215,7 @@
         </is>
       </c>
       <c r="G526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H526" t="n">
         <v>0</v>
@@ -25261,7 +25261,7 @@
         </is>
       </c>
       <c r="G527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H527" t="n">
         <v>0</v>
@@ -25353,7 +25353,7 @@
         </is>
       </c>
       <c r="G529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H529" t="n">
         <v>0</v>
@@ -25629,7 +25629,7 @@
         </is>
       </c>
       <c r="G535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H535" t="n">
         <v>1</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="G538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H538" t="n">
         <v>4</v>
@@ -25859,7 +25859,7 @@
         </is>
       </c>
       <c r="G540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H540" t="n">
         <v>2</v>
@@ -25905,7 +25905,7 @@
         </is>
       </c>
       <c r="G541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H541" t="n">
         <v>0</v>
@@ -25951,7 +25951,7 @@
         </is>
       </c>
       <c r="G542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H542" t="n">
         <v>0</v>
@@ -26135,7 +26135,7 @@
         </is>
       </c>
       <c r="G546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H546" t="n">
         <v>2</v>
@@ -26319,7 +26319,7 @@
         </is>
       </c>
       <c r="G550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H550" t="n">
         <v>1</v>
@@ -26503,7 +26503,7 @@
         </is>
       </c>
       <c r="G554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H554" t="n">
         <v>2</v>
@@ -26687,7 +26687,7 @@
         </is>
       </c>
       <c r="G558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H558" t="n">
         <v>3</v>
@@ -26733,7 +26733,7 @@
         </is>
       </c>
       <c r="G559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H559" t="n">
         <v>2</v>
@@ -26825,7 +26825,7 @@
         </is>
       </c>
       <c r="G561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H561" t="n">
         <v>1</v>
